--- a/2014 to 2017Q2.xlsx
+++ b/2014 to 2017Q2.xlsx
@@ -13,11 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014 to 2017Q2'!$A$1:$S$161</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="516">
   <si>
     <t>Description</t>
   </si>
@@ -1573,7 +1574,25 @@
     <t>Too many values. May not useful</t>
   </si>
   <si>
-    <t>Has a certain correlation to Grade</t>
+    <t>To convert into float</t>
+  </si>
+  <si>
+    <t>same as loan_amnt_inv</t>
+  </si>
+  <si>
+    <t>same as loan_amnt</t>
+  </si>
+  <si>
+    <t>To determine float or categorical</t>
+  </si>
+  <si>
+    <t>Majority is NaN</t>
+  </si>
+  <si>
+    <t>Don't know what this means</t>
+  </si>
+  <si>
+    <t>To combine with other delinq features</t>
   </si>
 </sst>
 </file>
@@ -2411,7 +2430,7 @@
   <dimension ref="A1:S161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2488,6 +2507,12 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
+      <c r="D2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" t="s">
+        <v>515</v>
+      </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2750,7 @@
         <v>61000000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3141,6 +3166,12 @@
       <c r="C15" t="s">
         <v>64</v>
       </c>
+      <c r="D15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E15" t="s">
+        <v>515</v>
+      </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
@@ -3194,6 +3225,12 @@
       <c r="C16" t="s">
         <v>67</v>
       </c>
+      <c r="D16" t="s">
+        <v>501</v>
+      </c>
+      <c r="E16" t="s">
+        <v>515</v>
+      </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
@@ -3247,6 +3284,12 @@
       <c r="C17" t="s">
         <v>70</v>
       </c>
+      <c r="D17" t="s">
+        <v>500</v>
+      </c>
+      <c r="E17" t="s">
+        <v>513</v>
+      </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
@@ -3319,7 +3362,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3382,6 +3425,9 @@
       <c r="C20" t="s">
         <v>82</v>
       </c>
+      <c r="D20" t="s">
+        <v>502</v>
+      </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
@@ -3411,6 +3457,12 @@
       <c r="C21" t="s">
         <v>86</v>
       </c>
+      <c r="D21" t="s">
+        <v>501</v>
+      </c>
+      <c r="E21" t="s">
+        <v>512</v>
+      </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
@@ -3443,6 +3495,9 @@
       <c r="D22" t="s">
         <v>502</v>
       </c>
+      <c r="E22" t="s">
+        <v>508</v>
+      </c>
       <c r="F22" t="s">
         <v>24</v>
       </c>
@@ -3584,6 +3639,12 @@
       <c r="C25" t="s">
         <v>102</v>
       </c>
+      <c r="D25" t="s">
+        <v>500</v>
+      </c>
+      <c r="E25" t="s">
+        <v>511</v>
+      </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
@@ -3637,6 +3698,12 @@
       <c r="C26" t="s">
         <v>106</v>
       </c>
+      <c r="D26" t="s">
+        <v>500</v>
+      </c>
+      <c r="E26" t="s">
+        <v>510</v>
+      </c>
       <c r="F26" t="s">
         <v>29</v>
       </c>
@@ -4091,7 +4158,7 @@
         <v>1719.83</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4847,6 +4914,12 @@
       <c r="C52" t="s">
         <v>191</v>
       </c>
+      <c r="D52" t="s">
+        <v>501</v>
+      </c>
+      <c r="E52" t="s">
+        <v>515</v>
+      </c>
       <c r="F52" t="s">
         <v>29</v>
       </c>
@@ -5208,7 +5281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5217,6 +5290,12 @@
       </c>
       <c r="C59" t="s">
         <v>212</v>
+      </c>
+      <c r="D59" t="s">
+        <v>501</v>
+      </c>
+      <c r="E59" t="s">
+        <v>515</v>
       </c>
       <c r="F59" t="s">
         <v>29</v>
@@ -6684,6 +6763,9 @@
       <c r="C87" t="s">
         <v>298</v>
       </c>
+      <c r="D87" t="s">
+        <v>501</v>
+      </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
@@ -6737,6 +6819,9 @@
       <c r="C88" t="s">
         <v>301</v>
       </c>
+      <c r="D88" t="s">
+        <v>501</v>
+      </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
@@ -6822,6 +6907,12 @@
       <c r="C90" t="s">
         <v>308</v>
       </c>
+      <c r="D90" t="s">
+        <v>502</v>
+      </c>
+      <c r="E90" t="s">
+        <v>514</v>
+      </c>
       <c r="F90" t="s">
         <v>24</v>
       </c>
@@ -6900,7 +6991,7 @@
         <v>37153.46</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6953,7 +7044,7 @@
         <v>2904836</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7107,7 +7198,7 @@
         <v>331</v>
       </c>
       <c r="D97" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E97" t="s">
         <v>508</v>
@@ -7723,7 +7814,7 @@
         <v>58235.73</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -7921,6 +8012,9 @@
       <c r="C113" t="s">
         <v>388</v>
       </c>
+      <c r="D113" t="s">
+        <v>500</v>
+      </c>
       <c r="F113" t="s">
         <v>24</v>
       </c>
@@ -7950,6 +8044,9 @@
       <c r="C114" t="s">
         <v>392</v>
       </c>
+      <c r="D114" t="s">
+        <v>501</v>
+      </c>
       <c r="F114" t="s">
         <v>24</v>
       </c>
@@ -7969,7 +8066,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7978,6 +8075,9 @@
       </c>
       <c r="C115" t="s">
         <v>395</v>
+      </c>
+      <c r="D115" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -8033,6 +8133,9 @@
       <c r="C118" t="s">
         <v>403</v>
       </c>
+      <c r="D118" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
@@ -8044,6 +8147,9 @@
       <c r="C119" t="s">
         <v>405</v>
       </c>
+      <c r="D119" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
@@ -8055,6 +8161,9 @@
       <c r="C120" t="s">
         <v>407</v>
       </c>
+      <c r="D120" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
@@ -8089,7 +8198,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8168,12 +8277,18 @@
         <v>426</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="C132" t="s">
         <v>427</v>
+      </c>
+      <c r="D132" t="s">
+        <v>500</v>
+      </c>
+      <c r="E132" t="s">
+        <v>513</v>
       </c>
       <c r="F132" t="s">
         <v>24</v>
@@ -8301,6 +8416,9 @@
       <c r="C135" t="s">
         <v>434</v>
       </c>
+      <c r="D135" t="s">
+        <v>502</v>
+      </c>
       <c r="F135" t="s">
         <v>29</v>
       </c>
@@ -8351,6 +8469,9 @@
       <c r="C136" t="s">
         <v>437</v>
       </c>
+      <c r="D136" t="s">
+        <v>502</v>
+      </c>
       <c r="F136" t="s">
         <v>29</v>
       </c>
@@ -8401,6 +8522,9 @@
       <c r="C137" t="s">
         <v>440</v>
       </c>
+      <c r="D137" t="s">
+        <v>500</v>
+      </c>
       <c r="F137" t="s">
         <v>24</v>
       </c>
@@ -8570,7 +8694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
@@ -9278,7 +9402,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9432,14 +9556,11 @@
   <autoFilter ref="A1:S161">
     <filterColumn colId="2">
       <filters>
-        <filter val="annual_inc_joint"/>
-        <filter val="dti_joint"/>
-        <filter val="int_rate"/>
-        <filter val="orig_projected_additional_accrued_interest"/>
+        <filter val="mths_since_recent_revol_delinq"/>
+        <filter val="revol_bal"/>
         <filter val="revol_bal_joint"/>
-        <filter val="total_rec_int"/>
-        <filter val="verification_status_joint"/>
-        <filter val="verified_status_joint"/>
+        <filter val="revol_util"/>
+        <filter val="sec_app_revol_util"/>
       </filters>
     </filterColumn>
   </autoFilter>
